--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167712.6387797413</v>
+        <v>162692.8623097866</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.17872462</v>
+        <v>12729019.1787246</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3813440.737038819</v>
+        <v>3770371.757471583</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>76.24863718372141</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>28.27372296392322</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.08822281599025586</v>
       </c>
       <c r="U23" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
         <v>207.9625118881446</v>
@@ -2457,10 +2459,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>155.3600948031382</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.67830721325009</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>89.73163134740375</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>92.94867414296913</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>63.51380460087799</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>54.46014173986627</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>202.5496269016835</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>94.02598646337731</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>48.68965834337547</v>
       </c>
     </row>
     <row r="31">
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>146.8233554024207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>198.7183542441977</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F32" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="G32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>229.9609751381512</v>
+        <v>93.09545221568158</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3110,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>67.6090499954403</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
         <v>48.89338144820752</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>35.56932271546238</v>
       </c>
     </row>
     <row r="34">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>76.74086563202137</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V35" t="n">
-        <v>229.9609751381512</v>
+        <v>101.7908309376553</v>
       </c>
       <c r="W35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>61.12539172422213</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>44.71289072473184</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3402,10 +3404,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.0106539846338</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>1.761703922407231</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V37" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="X38" t="n">
-        <v>130.7084367930148</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="39">
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.34811379246126</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>141.8420555911766</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>32.22039882976956</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>124.5836124923241</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="U40" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.70120739332346</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>229.9609751381512</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>37.70120739332346</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.38235633659032</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>48.92535853381431</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>122.7547025812883</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.7861457923905</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U43" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>77.38235633659032</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>52.01424425134721</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>279.6756096381168</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>279.6756096381168</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>507.3369750248864</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>734.998340411656</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>715.2483178236314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>715.2483178236314</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>482.9645045527716</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>482.9645045527716</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>482.9645045527716</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>250.6806912819119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.0699338890623</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>95.41570344915453</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>95.41570344915453</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>131.5118602307795</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>359.1732256175491</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>586.8345910043187</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>784.9132234524734</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>607.9294116513819</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>397.8662683300237</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>397.8662683300237</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>397.8662683300237</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>397.8662683300237</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>397.8662683300237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.39687801105209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>100.231919120994</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>264.3595589947938</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330578</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>633.8407713642671</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>796.5455384059751</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>916.4217041825536</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>919.8439005526046</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>891.2845844274296</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>659.0007711565698</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>426.71695788571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.6048967023534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="C23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="D23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="E23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="G23" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="D23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="E23" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G23" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5993,10 +5995,10 @@
         <v>163.0466509198802</v>
       </c>
       <c r="L23" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="M23" t="n">
         <v>279.6756096381168</v>
-      </c>
-      <c r="M23" t="n">
-        <v>507.3369750248864</v>
       </c>
       <c r="N23" t="n">
         <v>507.3369750248864</v>
@@ -6011,13 +6013,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U23" t="n">
         <v>715.2483178236314</v>
@@ -6029,10 +6031,10 @@
         <v>715.2483178236314</v>
       </c>
       <c r="X23" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y23" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F24" t="n">
         <v>18.39687801105209</v>
@@ -6069,19 +6071,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>131.5118602307795</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M24" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N24" t="n">
         <v>586.8345910043187</v>
       </c>
       <c r="O24" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P24" t="n">
         <v>919.8439005526046</v>
@@ -6093,25 +6095,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T24" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U24" t="n">
-        <v>709.7807572312464</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2407556023135</v>
+        <v>175.3262667010907</v>
       </c>
       <c r="W24" t="n">
-        <v>257.1235097356004</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y24" t="n">
-        <v>67.81643208561201</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.219347811948</v>
+        <v>188.6019959450629</v>
       </c>
       <c r="C25" t="n">
-        <v>655.0142298779372</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D25" t="n">
-        <v>655.0142298779372</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E25" t="n">
-        <v>499.4554177371396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
         <v>18.39687801105209</v>
@@ -6178,19 +6180,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X25" t="n">
-        <v>919.8439005526046</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="Y25" t="n">
-        <v>919.8439005526046</v>
+        <v>373.8100146363641</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>455.276274010885</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C26" t="n">
-        <v>250.6806912819119</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D26" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E26" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F26" t="n">
         <v>18.39687801105209</v>
@@ -6227,22 +6229,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K26" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>464.5211697790654</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N26" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P26" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6251,25 +6253,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V26" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W26" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X26" t="n">
-        <v>455.276274010885</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y26" t="n">
-        <v>455.276274010885</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>169.0511084509599</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C27" t="n">
-        <v>18.39687801105209</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D27" t="n">
-        <v>18.39687801105209</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E27" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F27" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G27" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H27" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6306,19 +6308,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L27" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M27" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N27" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="O27" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
         <v>692.182535165835</v>
@@ -6330,25 +6332,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T27" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U27" t="n">
-        <v>685.863714129311</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V27" t="n">
-        <v>463.3237125003781</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W27" t="n">
-        <v>233.2064666336649</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X27" t="n">
-        <v>169.0511084509599</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y27" t="n">
-        <v>169.0511084509599</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C28" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D28" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E28" t="n">
-        <v>18.39687801105209</v>
+        <v>632.5498431000617</v>
       </c>
       <c r="F28" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="G28" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="H28" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I28" t="n">
         <v>18.39687801105209</v>
@@ -6412,22 +6414,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U28" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V28" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W28" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X28" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C29" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D29" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E29" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F29" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G29" t="n">
         <v>18.39687801105209</v>
@@ -6461,25 +6463,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M29" t="n">
-        <v>507.3369750248864</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N29" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O29" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P29" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
@@ -6491,22 +6493,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T29" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U29" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V29" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W29" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X29" t="n">
-        <v>919.8439005526046</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y29" t="n">
-        <v>715.2483178236314</v>
+        <v>231.7756715703017</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>113.3726219134534</v>
+        <v>560.01837283546</v>
       </c>
       <c r="C30" t="n">
-        <v>113.3726219134534</v>
+        <v>409.3641423955522</v>
       </c>
       <c r="D30" t="n">
-        <v>113.3726219134534</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E30" t="n">
-        <v>113.3726219134534</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3726219134534</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
         <v>18.39687801105209</v>
@@ -6546,13 +6548,13 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L30" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M30" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O30" t="n">
         <v>692.182535165835</v>
@@ -6564,28 +6566,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>742.8600887515131</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U30" t="n">
-        <v>532.7969454301549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V30" t="n">
-        <v>532.7969454301549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W30" t="n">
-        <v>302.6796995634418</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X30" t="n">
-        <v>113.3726219134534</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y30" t="n">
-        <v>113.3726219134534</v>
+        <v>711.8147072764214</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>455.276274010885</v>
+        <v>486.8344769340704</v>
       </c>
       <c r="C31" t="n">
-        <v>455.276274010885</v>
+        <v>486.8344769340704</v>
       </c>
       <c r="D31" t="n">
-        <v>455.276274010885</v>
+        <v>331.2013638365852</v>
       </c>
       <c r="E31" t="n">
-        <v>455.276274010885</v>
+        <v>331.2013638365852</v>
       </c>
       <c r="F31" t="n">
-        <v>455.276274010885</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9698544124802</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H31" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I31" t="n">
         <v>18.39687801105209</v>
@@ -6652,19 +6654,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U31" t="n">
-        <v>919.8439005526046</v>
+        <v>719.1182902049302</v>
       </c>
       <c r="V31" t="n">
-        <v>919.8439005526046</v>
+        <v>486.8344769340704</v>
       </c>
       <c r="W31" t="n">
-        <v>687.5600872817448</v>
+        <v>486.8344769340704</v>
       </c>
       <c r="X31" t="n">
-        <v>455.276274010885</v>
+        <v>486.8344769340704</v>
       </c>
       <c r="Y31" t="n">
-        <v>455.276274010885</v>
+        <v>486.8344769340704</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>687.5600872817448</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="C32" t="n">
-        <v>687.5600872817448</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="D32" t="n">
-        <v>687.5600872817448</v>
+        <v>389.017808189447</v>
       </c>
       <c r="E32" t="n">
-        <v>455.276274010885</v>
+        <v>389.017808189447</v>
       </c>
       <c r="F32" t="n">
-        <v>250.6806912819119</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G32" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="H32" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I32" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>246.0582433978217</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M32" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N32" t="n">
         <v>692.182535165835</v>
@@ -6722,28 +6724,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="U32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="V32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="W32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="X32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="Y32" t="n">
-        <v>687.5600872817448</v>
+        <v>621.3016214603068</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.0761016915044</v>
+        <v>573.2712371060793</v>
       </c>
       <c r="C33" t="n">
-        <v>136.0761016915044</v>
+        <v>422.6170066661715</v>
       </c>
       <c r="D33" t="n">
-        <v>136.0761016915044</v>
+        <v>292.5280392876518</v>
       </c>
       <c r="E33" t="n">
-        <v>136.0761016915044</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="F33" t="n">
-        <v>136.0761016915044</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0761016915044</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H33" t="n">
         <v>67.7841319991405</v>
@@ -6801,28 +6803,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U33" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V33" t="n">
-        <v>697.3038989236717</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W33" t="n">
-        <v>467.1866530569586</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X33" t="n">
-        <v>467.1866530569586</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y33" t="n">
-        <v>287.8724361324658</v>
+        <v>725.0675715470406</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.39687801105209</v>
+        <v>657.1198559703727</v>
       </c>
       <c r="C34" t="n">
-        <v>18.39687801105209</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D34" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E34" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F34" t="n">
         <v>18.39687801105209</v>
@@ -6856,7 +6858,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J34" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K34" t="n">
         <v>100.231919120994</v>
@@ -6865,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6880,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="V34" t="n">
-        <v>687.5600872817448</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="W34" t="n">
-        <v>455.276274010885</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="X34" t="n">
-        <v>222.9924607400252</v>
+        <v>842.3278746616739</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.39687801105209</v>
+        <v>842.3278746616739</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="C35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="D35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="E35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="F35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="G35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I35" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L35" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M35" t="n">
-        <v>390.7080163066498</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N35" t="n">
-        <v>390.7080163066498</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O35" t="n">
         <v>507.3369750248864</v>
@@ -6959,28 +6961,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S35" t="n">
-        <v>753.3303454936552</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T35" t="n">
-        <v>753.3303454936552</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U35" t="n">
-        <v>521.0465322227953</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V35" t="n">
-        <v>288.7627189519355</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="W35" t="n">
-        <v>56.47890568107576</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="X35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>80.1396979345088</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="C36" t="n">
-        <v>18.39687801105209</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="D36" t="n">
-        <v>18.39687801105209</v>
+        <v>487.6324093445672</v>
       </c>
       <c r="E36" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F36" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G36" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7017,16 +7019,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K36" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L36" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M36" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N36" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O36" t="n">
         <v>692.182535165835</v>
@@ -7050,16 +7052,16 @@
         <v>532.7969454301549</v>
       </c>
       <c r="V36" t="n">
-        <v>310.256943801222</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="W36" t="n">
-        <v>80.1396979345088</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="X36" t="n">
-        <v>80.1396979345088</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="Y36" t="n">
-        <v>80.1396979345088</v>
+        <v>532.7969454301549</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="C37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="D37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="E37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="F37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="G37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="H37" t="n">
-        <v>20.17637692257455</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I37" t="n">
-        <v>20.17637692257455</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J37" t="n">
         <v>18.39687801105209</v>
@@ -7117,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T37" t="n">
-        <v>484.7440034642941</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U37" t="n">
-        <v>252.4601901934343</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V37" t="n">
-        <v>20.17637692257455</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W37" t="n">
-        <v>20.17637692257455</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.17637692257455</v>
+        <v>331.375284643462</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H38" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I38" t="n">
         <v>18.39687801105209</v>
@@ -7175,19 +7177,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L38" t="n">
-        <v>464.5211697790654</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M38" t="n">
-        <v>692.182535165835</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N38" t="n">
-        <v>919.8439005526046</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8439005526046</v>
+        <v>846.030747080189</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7196,28 +7198,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T38" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U38" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V38" t="n">
-        <v>521.0465322227953</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W38" t="n">
-        <v>288.7627189519355</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="X38" t="n">
-        <v>156.7339949185873</v>
+        <v>417.283360296407</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.7339949185873</v>
+        <v>184.9995470255472</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.39687801105209</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="C39" t="n">
-        <v>18.39687801105209</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="D39" t="n">
-        <v>18.39687801105209</v>
+        <v>487.6324093445672</v>
       </c>
       <c r="E39" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F39" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G39" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H39" t="n">
         <v>18.39687801105209</v>
@@ -7260,16 +7262,16 @@
         <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N39" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
@@ -7278,25 +7280,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S39" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T39" t="n">
-        <v>718.9430456495777</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="U39" t="n">
-        <v>508.8799023282195</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="V39" t="n">
-        <v>508.8799023282195</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="W39" t="n">
-        <v>278.7626564615064</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="X39" t="n">
-        <v>89.45557881151802</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.45557881151802</v>
+        <v>617.7213767230869</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C40" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D40" t="n">
-        <v>455.276274010885</v>
+        <v>655.0142298779372</v>
       </c>
       <c r="E40" t="n">
-        <v>299.7174618700875</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="F40" t="n">
-        <v>299.7174618700875</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="G40" t="n">
         <v>173.8754290495581</v>
@@ -7339,7 +7341,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M40" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
         <v>633.8407713642671</v>
@@ -7360,22 +7362,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T40" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="U40" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="V40" t="n">
         <v>687.5600872817448</v>
       </c>
-      <c r="U40" t="n">
-        <v>455.276274010885</v>
-      </c>
-      <c r="V40" t="n">
-        <v>455.276274010885</v>
-      </c>
       <c r="W40" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X40" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y40" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7411,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K41" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L41" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M41" t="n">
-        <v>464.5211697790654</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N41" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O41" t="n">
         <v>919.8439005526046</v>
@@ -7442,7 +7444,7 @@
         <v>753.3303454936552</v>
       </c>
       <c r="U41" t="n">
-        <v>753.3303454936552</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="V41" t="n">
         <v>521.0465322227953</v>
@@ -7454,7 +7456,7 @@
         <v>521.0465322227953</v>
       </c>
       <c r="Y41" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.81643208561201</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C42" t="n">
-        <v>67.81643208561201</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D42" t="n">
-        <v>67.81643208561201</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E42" t="n">
-        <v>67.81643208561201</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F42" t="n">
-        <v>67.81643208561201</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G42" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H42" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I42" t="n">
         <v>18.39687801105209</v>
@@ -7491,49 +7493,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K42" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L42" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M42" t="n">
-        <v>131.5118602307795</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N42" t="n">
-        <v>236.8598043922958</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O42" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U42" t="n">
-        <v>709.7807572312464</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V42" t="n">
-        <v>487.2407556023135</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W42" t="n">
-        <v>257.1235097356004</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81643208561201</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.81643208561201</v>
+        <v>895.9268574506692</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C43" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D43" t="n">
-        <v>331.2816249388766</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E43" t="n">
-        <v>175.7228127980791</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F43" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G43" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="H43" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I43" t="n">
         <v>18.39687801105209</v>
@@ -7597,22 +7599,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5600872817448</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V43" t="n">
         <v>455.276274010885</v>
       </c>
       <c r="W43" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X43" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y43" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>417.283360296407</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>184.9995470255472</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>817.762861151083</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
   </sheetData>
@@ -9404,22 +9406,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>187.2051053267494</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9500,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9559,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>166.520275497658</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>278.4750710187352</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O23" t="n">
         <v>149.5638374240964</v>
@@ -9717,22 +9719,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P24" t="n">
-        <v>193.4954296289271</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9875,25 +9877,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>224.2837924789551</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N26" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,22 +9956,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>196.0090001429458</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>320.9491282940651</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>183.6819871939849</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10194,16 +10196,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N30" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P30" t="n">
         <v>317.0443399574658</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>370.3946742050441</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N32" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
         <v>149.5638374240964</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
@@ -10592,13 +10594,13 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O35" t="n">
-        <v>267.3708664324162</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
         <v>380.2624223790764</v>
@@ -10665,19 +10667,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L36" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N36" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10823,10 +10825,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>217.6171440604653</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
         <v>379.6860267358784</v>
@@ -10835,10 +10837,10 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>224.8601881221531</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10908,19 +10910,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N39" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>217.6171440604653</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>379.0794664759352</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O41" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
         <v>150.3014472409252</v>
@@ -11139,25 +11141,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N42" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,25 +11299,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>177.0153387754951</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -24020,13 +24022,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>58.83338879649973</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -24096,13 +24098,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24184,16 +24186,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>235.0458287634608</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>221.1773736001872</v>
       </c>
       <c r="U23" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24269,7 +24271,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24294,7 +24296,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>74.26212952188521</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
         <v>118.8592197488542</v>
@@ -24333,10 +24335,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>72.45597860490778</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.67763129113817</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24418,7 +24420,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24427,10 +24429,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>142.007887647443</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,16 +24445,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>186.6941195804153</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>366.3289079700248</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24491,22 +24493,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V26" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24522,25 +24524,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>56.19901399253958</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>123.9002022726105</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24607,19 +24609,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>99.54308227952323</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>50.53612290998299</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>185.2447926306258</v>
       </c>
       <c r="C29" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24731,10 +24733,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24746,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>189.9761750869214</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>24.83323328547689</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
         <v>87.41444223540508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>128.8314164118724</v>
       </c>
     </row>
     <row r="31">
@@ -24841,22 +24843,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.74815795912821</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24892,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>83.86604959632038</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24920,22 +24922,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E32" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>210.1758671836386</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24983,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.5648268504537</v>
+        <v>299.4303497729233</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -25011,7 +25013,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>19.80539223996477</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>175.2139736830806</v>
@@ -25053,16 +25055,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>141.9517520397854</v>
       </c>
     </row>
     <row r="34">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>45.92111384172743</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25132,16 +25134,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.33131366983966</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>23.23422713159621</v>
       </c>
       <c r="V35" t="n">
-        <v>108.7247660653656</v>
+        <v>236.8949102658615</v>
       </c>
       <c r="W35" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>347.8568716229503</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25233,22 +25235,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>88.02229641128656</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>84.07518698000263</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25290,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25327,13 +25329,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>5.913111543487133</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.31278354975184</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>231.5531559299328</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25409,7 +25411,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>137.3280695432443</v>
       </c>
       <c r="X38" t="n">
-        <v>254.8496422232589</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79.93025730409046</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>48.89338144820752</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>33.37191809190404</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25552,16 +25554,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>121.8563831367408</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.98790086922482</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.7885908609595</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>159.2827713439475</v>
@@ -25682,10 +25684,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V41" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>354.8245945952814</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>72.8960147599614</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>69.93386121503988</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -25761,16 +25763,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25789,22 +25791,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>31.32207938522211</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>83.13761973573045</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25837,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U43" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25868,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>216.6500751711488</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25919,13 +25921,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25944,25 +25946,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -26010,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>100.1387184186575</v>
       </c>
     </row>
     <row r="46">
@@ -26074,16 +26076,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435305.8523040684</v>
+        <v>232951.5378089735</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435305.8523040685</v>
+        <v>435305.8523040686</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>435305.8523040686</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>52601.96015041335</v>
       </c>
       <c r="H2" t="n">
-        <v>98205.26357376792</v>
+        <v>52601.96015041335</v>
       </c>
       <c r="I2" t="n">
-        <v>98205.26357376792</v>
+        <v>98205.26357376797</v>
       </c>
       <c r="J2" t="n">
-        <v>98205.26357376792</v>
+        <v>98205.26357376791</v>
       </c>
       <c r="K2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376797</v>
       </c>
       <c r="L2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376795</v>
       </c>
       <c r="M2" t="n">
         <v>98205.26357376792</v>
       </c>
       <c r="N2" t="n">
+        <v>98205.26357376795</v>
+      </c>
+      <c r="O2" t="n">
         <v>98205.26357376791</v>
       </c>
-      <c r="O2" t="n">
-        <v>98205.26357376789</v>
-      </c>
       <c r="P2" t="n">
-        <v>52601.96015041335</v>
+        <v>98205.26357376792</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61151.45246971229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>22543.69720732</v>
       </c>
       <c r="H4" t="n">
-        <v>42684.20901701353</v>
+        <v>22543.69720732</v>
       </c>
       <c r="I4" t="n">
         <v>42684.20901701353</v>
@@ -26457,7 +26459,7 @@
         <v>42684.20901701353</v>
       </c>
       <c r="P4" t="n">
-        <v>22543.69720732</v>
+        <v>42684.20901701353</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13981.62728839959</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>13981.62728839959</v>
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-3569.337056906639</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-3569.337056906639</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906654</v>
+        <v>-3569.337056906639</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309336</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309335</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309336</v>
       </c>
       <c r="H6" t="n">
-        <v>-20506.11347269463</v>
+        <v>30058.26294309336</v>
       </c>
       <c r="I6" t="n">
-        <v>41539.4272683548</v>
+        <v>-19612.02520135745</v>
       </c>
       <c r="J6" t="n">
-        <v>41539.4272683548</v>
+        <v>41539.42726835479</v>
       </c>
       <c r="K6" t="n">
-        <v>41539.42726835478</v>
+        <v>41539.42726835484</v>
       </c>
       <c r="L6" t="n">
-        <v>41539.42726835478</v>
+        <v>41539.42726835483</v>
       </c>
       <c r="M6" t="n">
         <v>41539.4272683548</v>
       </c>
       <c r="N6" t="n">
+        <v>41539.42726835483</v>
+      </c>
+      <c r="O6" t="n">
         <v>41539.42726835478</v>
       </c>
-      <c r="O6" t="n">
-        <v>41539.42726835477</v>
-      </c>
       <c r="P6" t="n">
-        <v>30058.26294309335</v>
+        <v>41539.4272683548</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>229.9609751381512</v>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>117.8070290083198</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P24" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N24" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O24" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P24" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>74.55874088122788</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="O27" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>229.9609751381512</v>
@@ -36771,7 +36773,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="O29" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M29" t="n">
-        <v>33.95693559625767</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P30" t="n">
         <v>229.9609751381512</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
-        <v>220.6696226073169</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,13 +37314,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>33.95693559625767</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>229.9609751381512</v>
@@ -37385,19 +37387,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37476,10 +37478,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>164.3482495370788</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37543,10 +37545,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>229.9609751381512</v>
@@ -37555,10 +37557,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N39" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N42" t="n">
-        <v>106.4120648096124</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162692.8623097866</v>
+        <v>151729.5695012766</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.1787246</v>
+        <v>12729019.17872461</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.3594104</v>
+        <v>18807999.35941037</v>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0.08822281599025586</v>
+        <v>37.70120739332352</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>141.8420555911766</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>155.3600948031382</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X25" t="n">
-        <v>89.73163134740375</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F26" t="n">
-        <v>46.39658611529718</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>37.70120739332346</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>92.94867414296913</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
@@ -2654,7 +2654,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>141.8420555911766</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>54.46014173986627</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2730,13 +2730,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.56753965609903</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>211.2450056236571</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,20 +2839,20 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>101.7101078883172</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.68965834337547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>198.7183542441977</v>
+        <v>95.1514395160568</v>
       </c>
       <c r="V31" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>8.783601537963921</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.09545221568158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>43.49527083975648</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.56932271546238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>76.74086563202137</v>
+        <v>1.761703922407411</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -3322,10 +3322,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>229.9609751381512</v>
+        <v>46.39658611529722</v>
       </c>
       <c r="V35" t="n">
-        <v>101.7908309376553</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>44.71289072473184</v>
+        <v>21.48288052231903</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
@@ -3362,7 +3362,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.0106539846338</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -3474,10 +3474,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>58.89319452240365</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="X37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>164.9366423243501</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>37.44751905330602</v>
       </c>
       <c r="T39" t="n">
-        <v>141.8420555911766</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.22039882976956</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>229.9609751381512</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,23 +3742,23 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D41" t="n">
+      <c r="H41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U41" t="n">
         <v>229.9609751381512</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>37.70120739332346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.38235633659032</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>72.09579296137402</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>24.36299181516893</v>
       </c>
       <c r="H43" t="n">
-        <v>70.7861457923905</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>164.9366423243501</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>66.63642666809291</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.38235633659032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.47284493517299</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>229.9609751381512</v>
@@ -4197,7 +4197,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5992,19 +5992,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L23" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M23" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N23" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P23" t="n">
         <v>734.998340411656</v>
@@ -6013,10 +6013,10 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T23" t="n">
         <v>715.2483178236314</v>
@@ -6025,16 +6025,16 @@
         <v>715.2483178236314</v>
       </c>
       <c r="V23" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W23" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X23" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y23" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C24" t="n">
-        <v>18.39687801105209</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="D24" t="n">
-        <v>18.39687801105209</v>
+        <v>487.6324093445672</v>
       </c>
       <c r="E24" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F24" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G24" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H24" t="n">
         <v>18.39687801105209</v>
@@ -6077,10 +6077,10 @@
         <v>586.8345910043187</v>
       </c>
       <c r="M24" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N24" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O24" t="n">
         <v>692.182535165835</v>
@@ -6092,28 +6092,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T24" t="n">
-        <v>607.9294116513819</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U24" t="n">
-        <v>397.8662683300237</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V24" t="n">
-        <v>175.3262667010907</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W24" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X24" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.6019959450629</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C25" t="n">
         <v>18.39687801105209</v>
@@ -6177,22 +6177,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U25" t="n">
-        <v>687.5600872817448</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V25" t="n">
-        <v>687.5600872817448</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W25" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X25" t="n">
-        <v>596.9220758197208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y25" t="n">
-        <v>373.8100146363641</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E26" t="n">
-        <v>65.26211651135227</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F26" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G26" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H26" t="n">
         <v>18.39687801105209</v>
@@ -6235,16 +6235,16 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>734.998340411656</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6256,22 +6256,22 @@
         <v>753.3303454936552</v>
       </c>
       <c r="T26" t="n">
-        <v>529.8297430530719</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U26" t="n">
-        <v>297.5459297822121</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="V26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y26" t="n">
-        <v>297.5459297822121</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="C27" t="n">
-        <v>667.1086307111752</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="D27" t="n">
-        <v>537.0196633326556</v>
+        <v>487.6324093445672</v>
       </c>
       <c r="E27" t="n">
-        <v>400.5731724435433</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F27" t="n">
-        <v>276.1413663266751</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H27" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6311,16 +6311,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L27" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M27" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="N27" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O27" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="O27" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
         <v>692.182535165835</v>
@@ -6335,22 +6335,22 @@
         <v>760.996180350538</v>
       </c>
       <c r="T27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="U27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="V27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="W27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="X27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="Y27" t="n">
-        <v>760.996180350538</v>
+        <v>617.7213767230869</v>
       </c>
     </row>
     <row r="28">
@@ -6363,25 +6363,25 @@
         <v>687.5600872817448</v>
       </c>
       <c r="C28" t="n">
-        <v>687.5600872817448</v>
+        <v>517.354969347734</v>
       </c>
       <c r="D28" t="n">
-        <v>687.5600872817448</v>
+        <v>361.7218562502488</v>
       </c>
       <c r="E28" t="n">
-        <v>632.5498431000617</v>
+        <v>361.7218562502488</v>
       </c>
       <c r="F28" t="n">
-        <v>475.2239083130347</v>
+        <v>204.3959214632217</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9698544124802</v>
+        <v>36.14186756266727</v>
       </c>
       <c r="H28" t="n">
-        <v>151.4913033739742</v>
+        <v>36.14186756266727</v>
       </c>
       <c r="I28" t="n">
-        <v>18.39687801105209</v>
+        <v>36.14186756266727</v>
       </c>
       <c r="J28" t="n">
         <v>18.39687801105209</v>
@@ -6414,13 +6414,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U28" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V28" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W28" t="n">
         <v>687.5600872817448</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="C29" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="D29" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="E29" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="F29" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="G29" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="H29" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
@@ -6469,16 +6469,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M29" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N29" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
         <v>919.8439005526046</v>
@@ -6487,28 +6487,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T29" t="n">
-        <v>696.3432981120213</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U29" t="n">
-        <v>464.0594848411615</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V29" t="n">
-        <v>464.0594848411615</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W29" t="n">
-        <v>464.0594848411615</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X29" t="n">
-        <v>464.0594848411615</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.7756715703017</v>
+        <v>259.553016067734</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>560.01837283546</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="C30" t="n">
-        <v>409.3641423955522</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="D30" t="n">
-        <v>279.2751750170326</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="E30" t="n">
-        <v>142.8286841279203</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F30" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G30" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H30" t="n">
         <v>18.39687801105209</v>
@@ -6548,19 +6548,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L30" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="M30" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="N30" t="n">
         <v>359.1732256175491</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>586.8345910043187</v>
       </c>
-      <c r="N30" t="n">
-        <v>586.8345910043187</v>
-      </c>
-      <c r="O30" t="n">
-        <v>692.182535165835</v>
-      </c>
       <c r="P30" t="n">
-        <v>919.8439005526046</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6572,22 +6572,22 @@
         <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>760.996180350538</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U30" t="n">
-        <v>760.996180350538</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="V30" t="n">
-        <v>760.996180350538</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="W30" t="n">
-        <v>760.996180350538</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="X30" t="n">
-        <v>760.996180350538</v>
+        <v>481.2748858339746</v>
       </c>
       <c r="Y30" t="n">
-        <v>711.8147072764214</v>
+        <v>481.2748858339746</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>486.8344769340704</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="C31" t="n">
-        <v>486.8344769340704</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D31" t="n">
-        <v>331.2013638365852</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E31" t="n">
-        <v>331.2013638365852</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F31" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G31" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H31" t="n">
         <v>18.39687801105209</v>
@@ -6654,19 +6654,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U31" t="n">
-        <v>719.1182902049302</v>
+        <v>823.7313353848705</v>
       </c>
       <c r="V31" t="n">
-        <v>486.8344769340704</v>
+        <v>591.4475221140107</v>
       </c>
       <c r="W31" t="n">
-        <v>486.8344769340704</v>
+        <v>359.1637088431509</v>
       </c>
       <c r="X31" t="n">
-        <v>486.8344769340704</v>
+        <v>359.1637088431509</v>
       </c>
       <c r="Y31" t="n">
-        <v>486.8344769340704</v>
+        <v>359.1637088431509</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>621.3016214603068</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C32" t="n">
-        <v>621.3016214603068</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D32" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E32" t="n">
-        <v>389.017808189447</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F32" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G32" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H32" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I32" t="n">
         <v>18.39687801105209</v>
@@ -6706,19 +6706,19 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M32" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N32" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O32" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
@@ -6730,22 +6730,22 @@
         <v>715.3374317791771</v>
       </c>
       <c r="T32" t="n">
-        <v>715.3374317791771</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U32" t="n">
-        <v>715.3374317791771</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V32" t="n">
-        <v>715.3374317791771</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W32" t="n">
-        <v>715.3374317791771</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X32" t="n">
-        <v>715.3374317791771</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y32" t="n">
-        <v>621.3016214603068</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>573.2712371060793</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="C33" t="n">
-        <v>422.6170066661715</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="D33" t="n">
-        <v>292.5280392876518</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0815483985396</v>
+        <v>306.8231190659109</v>
       </c>
       <c r="F33" t="n">
-        <v>156.0815483985396</v>
+        <v>182.3913129490427</v>
       </c>
       <c r="G33" t="n">
-        <v>156.0815483985396</v>
+        <v>62.33149502090713</v>
       </c>
       <c r="H33" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
@@ -6782,16 +6782,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L33" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M33" t="n">
-        <v>814.4959563910883</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N33" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O33" t="n">
         <v>919.8439005526046</v>
@@ -6806,25 +6806,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T33" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U33" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V33" t="n">
-        <v>760.996180350538</v>
+        <v>673.3868558217363</v>
       </c>
       <c r="W33" t="n">
-        <v>760.996180350538</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="X33" t="n">
-        <v>760.996180350538</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.0675715470406</v>
+        <v>443.2696099550232</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.1198559703727</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C34" t="n">
-        <v>486.9147380363619</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D34" t="n">
-        <v>331.2816249388766</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E34" t="n">
-        <v>175.7228127980791</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F34" t="n">
         <v>18.39687801105209</v>
@@ -6882,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>842.3278746616739</v>
+        <v>918.064401641082</v>
       </c>
       <c r="S34" t="n">
-        <v>842.3278746616739</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="T34" t="n">
-        <v>842.3278746616739</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="U34" t="n">
-        <v>842.3278746616739</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V34" t="n">
-        <v>842.3278746616739</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W34" t="n">
-        <v>842.3278746616739</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X34" t="n">
-        <v>842.3278746616739</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y34" t="n">
-        <v>842.3278746616739</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F35" t="n">
-        <v>156.7339949185873</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G35" t="n">
-        <v>156.7339949185873</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H35" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I35" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L35" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M35" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N35" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T35" t="n">
-        <v>491.8368293385938</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U35" t="n">
-        <v>259.553016067734</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.7339949185873</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>532.7969454301549</v>
+        <v>571.6891027005497</v>
       </c>
       <c r="C36" t="n">
-        <v>532.7969454301549</v>
+        <v>421.0348722606419</v>
       </c>
       <c r="D36" t="n">
-        <v>487.6324093445672</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E36" t="n">
-        <v>351.1859184554549</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F36" t="n">
-        <v>226.7541123385867</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G36" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7016,52 +7016,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L36" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M36" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N36" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O36" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P36" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S36" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T36" t="n">
-        <v>742.8600887515131</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U36" t="n">
-        <v>532.7969454301549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V36" t="n">
-        <v>532.7969454301549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W36" t="n">
-        <v>532.7969454301549</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X36" t="n">
-        <v>532.7969454301549</v>
+        <v>571.6891027005497</v>
       </c>
       <c r="Y36" t="n">
-        <v>532.7969454301549</v>
+        <v>571.6891027005497</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="C37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="D37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H37" t="n">
-        <v>181.8695735478723</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I37" t="n">
         <v>48.77514818495014</v>
@@ -7122,25 +7122,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>795.9429111851816</v>
+        <v>736.4548359100264</v>
       </c>
       <c r="T37" t="n">
-        <v>795.9429111851816</v>
+        <v>504.1710226391666</v>
       </c>
       <c r="U37" t="n">
-        <v>795.9429111851816</v>
+        <v>504.1710226391666</v>
       </c>
       <c r="V37" t="n">
-        <v>795.9429111851816</v>
+        <v>504.1710226391666</v>
       </c>
       <c r="W37" t="n">
-        <v>563.6590979143218</v>
+        <v>271.8872093683068</v>
       </c>
       <c r="X37" t="n">
-        <v>331.375284643462</v>
+        <v>271.8872093683068</v>
       </c>
       <c r="Y37" t="n">
-        <v>331.375284643462</v>
+        <v>48.77514818495014</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C38" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D38" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E38" t="n">
         <v>18.39687801105209</v>
@@ -7174,22 +7174,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K38" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L38" t="n">
-        <v>163.0466509198802</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M38" t="n">
-        <v>390.7080163066498</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N38" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7198,28 +7198,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S38" t="n">
-        <v>881.8509868381266</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T38" t="n">
-        <v>881.8509868381266</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U38" t="n">
-        <v>881.8509868381266</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V38" t="n">
-        <v>881.8509868381266</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W38" t="n">
-        <v>649.5671735672668</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X38" t="n">
-        <v>417.283360296407</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y38" t="n">
-        <v>184.9995470255472</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>617.7213767230869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C39" t="n">
-        <v>617.7213767230869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D39" t="n">
-        <v>487.6324093445672</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E39" t="n">
-        <v>351.1859184554549</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F39" t="n">
-        <v>226.7541123385867</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G39" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
         <v>18.39687801105209</v>
@@ -7262,16 +7262,16 @@
         <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N39" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
@@ -7280,25 +7280,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S39" t="n">
-        <v>760.996180350538</v>
+        <v>858.101080629148</v>
       </c>
       <c r="T39" t="n">
-        <v>617.7213767230869</v>
+        <v>681.1172688280565</v>
       </c>
       <c r="U39" t="n">
-        <v>617.7213767230869</v>
+        <v>471.0541255066982</v>
       </c>
       <c r="V39" t="n">
-        <v>617.7213767230869</v>
+        <v>248.5141238777652</v>
       </c>
       <c r="W39" t="n">
-        <v>617.7213767230869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X39" t="n">
-        <v>617.7213767230869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y39" t="n">
-        <v>617.7213767230869</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C40" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D40" t="n">
-        <v>655.0142298779372</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>499.4554177371396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>342.1294829501126</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
         <v>18.39687801105209</v>
@@ -7359,25 +7359,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U40" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V40" t="n">
-        <v>687.5600872817448</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="W40" t="n">
-        <v>687.5600872817448</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="X40" t="n">
-        <v>687.5600872817448</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y40" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="D41" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="E41" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F41" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="G41" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F41" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H41" t="n">
         <v>18.39687801105209</v>
@@ -7411,16 +7411,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M41" t="n">
-        <v>701.380974171361</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N41" t="n">
         <v>919.8439005526046</v>
@@ -7438,22 +7438,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>753.3303454936552</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U41" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V41" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W41" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X41" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y41" t="n">
         <v>482.9645045527716</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>817.762861151083</v>
+        <v>303.9501338216365</v>
       </c>
       <c r="C42" t="n">
-        <v>667.1086307111752</v>
+        <v>303.9501338216365</v>
       </c>
       <c r="D42" t="n">
-        <v>537.0196633326556</v>
+        <v>303.9501338216365</v>
       </c>
       <c r="E42" t="n">
-        <v>400.5731724435433</v>
+        <v>303.9501338216365</v>
       </c>
       <c r="F42" t="n">
-        <v>276.1413663266751</v>
+        <v>179.5183277047684</v>
       </c>
       <c r="G42" t="n">
-        <v>156.0815483985396</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H42" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I42" t="n">
         <v>18.39687801105209</v>
@@ -7493,13 +7493,13 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K42" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L42" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="M42" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="M42" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="N42" t="n">
         <v>692.182535165835</v>
@@ -7523,19 +7523,19 @@
         <v>895.9268574506692</v>
       </c>
       <c r="U42" t="n">
-        <v>895.9268574506692</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V42" t="n">
-        <v>895.9268574506692</v>
+        <v>685.863714129311</v>
       </c>
       <c r="W42" t="n">
-        <v>895.9268574506692</v>
+        <v>455.7464682625979</v>
       </c>
       <c r="X42" t="n">
-        <v>895.9268574506692</v>
+        <v>455.7464682625979</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.9268574506692</v>
+        <v>455.7464682625979</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.9924607400252</v>
+        <v>511.5238206779467</v>
       </c>
       <c r="C43" t="n">
-        <v>222.9924607400252</v>
+        <v>511.5238206779467</v>
       </c>
       <c r="D43" t="n">
-        <v>222.9924607400252</v>
+        <v>355.8907075804614</v>
       </c>
       <c r="E43" t="n">
-        <v>222.9924607400252</v>
+        <v>200.3318954396639</v>
       </c>
       <c r="F43" t="n">
-        <v>222.9924607400252</v>
+        <v>43.00596065263687</v>
       </c>
       <c r="G43" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H43" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I43" t="n">
         <v>18.39687801105209</v>
@@ -7599,22 +7599,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U43" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V43" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W43" t="n">
-        <v>222.9924607400252</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X43" t="n">
-        <v>222.9924607400252</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.9924607400252</v>
+        <v>696.731839369248</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.9995470255472</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="C44" t="n">
-        <v>184.9995470255472</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="D44" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="E44" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="F44" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="G44" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="H44" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="I44" t="n">
         <v>18.39687801105209</v>
@@ -7651,19 +7651,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K44" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L44" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M44" t="n">
         <v>52.01424425134721</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>279.6756096381168</v>
       </c>
-      <c r="M44" t="n">
-        <v>279.6756096381168</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="O44" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P44" t="n">
         <v>734.998340411656</v>
@@ -7675,25 +7675,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S44" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T44" t="n">
-        <v>881.8509868381266</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U44" t="n">
-        <v>649.5671735672668</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V44" t="n">
-        <v>417.283360296407</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W44" t="n">
-        <v>184.9995470255472</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X44" t="n">
-        <v>184.9995470255472</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.9995470255472</v>
+        <v>27.26920279687423</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.762861151083</v>
+        <v>222.1528907871269</v>
       </c>
       <c r="C45" t="n">
-        <v>667.1086307111752</v>
+        <v>222.1528907871269</v>
       </c>
       <c r="D45" t="n">
-        <v>537.0196633326556</v>
+        <v>222.1528907871269</v>
       </c>
       <c r="E45" t="n">
-        <v>400.5731724435433</v>
+        <v>85.70639989801464</v>
       </c>
       <c r="F45" t="n">
-        <v>276.1413663266751</v>
+        <v>85.70639989801464</v>
       </c>
       <c r="G45" t="n">
-        <v>156.0815483985396</v>
+        <v>85.70639989801464</v>
       </c>
       <c r="H45" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
         <v>236.8598043922958</v>
       </c>
       <c r="L45" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="M45" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N45" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N45" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O45" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P45" t="n">
         <v>919.8439005526046</v>
@@ -7754,25 +7754,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T45" t="n">
-        <v>895.9268574506692</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U45" t="n">
-        <v>895.9268574506692</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V45" t="n">
-        <v>895.9268574506692</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="W45" t="n">
-        <v>895.9268574506692</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="X45" t="n">
-        <v>895.9268574506692</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="Y45" t="n">
-        <v>817.762861151083</v>
+        <v>373.9492252280883</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C46" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D46" t="n">
-        <v>18.39687801105209</v>
+        <v>67.35934764253997</v>
       </c>
       <c r="E46" t="n">
         <v>18.39687801105209</v>
@@ -7806,19 +7806,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N46" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
         <v>796.5455384059751</v>
@@ -7836,22 +7836,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="U46" t="n">
         <v>687.5600872817448</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>455.276274010885</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>222.9924607400252</v>
       </c>
-      <c r="W46" t="n">
-        <v>18.39687801105209</v>
-      </c>
       <c r="X46" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
-        <v>267.5320806060471</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9725,13 +9725,13 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>199.0996236985014</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>317.0443399574658</v>
@@ -9883,10 +9883,10 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>267.5320806060471</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O26" t="n">
         <v>149.5638374240964</v>
@@ -9895,7 +9895,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9959,7 +9959,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -9971,7 +9971,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q27" t="n">
         <v>320.9491282940651</v>
@@ -10117,19 +10117,19 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
         <v>223.677232219012</v>
       </c>
       <c r="O29" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10196,22 +10196,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
-        <v>199.0996236985014</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P30" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10354,10 +10354,10 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M32" t="n">
-        <v>224.2837924789551</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
         <v>149.1184913377841</v>
@@ -10369,7 +10369,7 @@
         <v>380.2624223790764</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,19 +10430,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>319.5579104714845</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L33" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M33" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
@@ -10594,19 +10594,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N35" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>319.5579104714845</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L36" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
-        <v>379.0794664759352</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10910,19 +10910,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>373.0193783173885</v>
@@ -11071,7 +11071,7 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>369.7881139451009</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
@@ -11141,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>196.4724116665307</v>
@@ -11150,7 +11150,7 @@
         <v>322.3480971874631</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O42" t="n">
         <v>322.6485340270401</v>
@@ -11299,13 +11299,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>177.0153387754951</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N44" t="n">
         <v>379.0794664759352</v>
@@ -11314,7 +11314,7 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>310.2665579406502</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24220,10 +24220,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.1773736001872</v>
+        <v>183.564389022854</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24287,22 +24287,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>7.305632544332127</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>48.89338144820752</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>72.45597860490778</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X25" t="n">
-        <v>142.007887647443</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>366.3289079700248</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>23.23422713159621</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>300.9845338101933</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24524,7 +24524,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>56.19901399253958</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>33.37191809190404</v>
       </c>
       <c r="U27" t="n">
         <v>207.9625118881446</v>
@@ -24603,13 +24603,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.54308227952323</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>12.50694781606004</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -24663,7 +24663,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.2447926306258</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24691,7 +24691,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -24700,7 +24700,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>128.1701442004959</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>48.89338144820752</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9625118881446</v>
+        <v>106.2524039998274</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24827,7 +24827,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>128.8314164118724</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24894,13 +24894,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>83.86604959632038</v>
+        <v>187.4329643244613</v>
       </c>
       <c r="V31" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24922,22 +24922,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>329.9021396655529</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>299.4303497729233</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>43.9191713956486</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
         <v>175.2139736830806</v>
@@ -25055,16 +25055,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.9517520397854</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.92111384172743</v>
+        <v>120.9002755513414</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>23.23422713159621</v>
+        <v>206.7986161544501</v>
       </c>
       <c r="V35" t="n">
-        <v>236.8949102658615</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25235,10 +25235,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>84.07518698000263</v>
+        <v>107.3051971824154</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25298,7 +25298,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25329,10 +25329,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>5.913111543487133</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>141.8947284568725</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25377,10 +25377,10 @@
         <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.5531559299328</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>352.1611035193237</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
         <v>48.89338144820752</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>96.13385127582382</v>
       </c>
       <c r="T39" t="n">
-        <v>33.37191809190404</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25554,19 +25554,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>121.8563831367408</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25599,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>33.35857658923285</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>219.1192366491158</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,10 +25642,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25678,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U41" t="n">
         <v>23.23422713159621</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.8245945952814</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>72.8960147599614</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>46.76342678748018</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,13 +25763,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>142.20852154638</v>
       </c>
       <c r="H43" t="n">
-        <v>83.13761973573045</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -25839,22 +25839,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>216.6500751711488</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>128.1701442004959</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>20.77801556731217</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26012,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>100.1387184186575</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26028,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>105.5303790842165</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>52.62342870236691</v>
@@ -26085,7 +26085,7 @@
         <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>77.94747114645074</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435305.8523040685</v>
+        <v>435305.8523040686</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435305.8523040685</v>
+        <v>435305.8523040686</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435305.8523040685</v>
+        <v>435305.8523040684</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>435305.8523040686</v>
+        <v>435305.8523040685</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>52601.96015041335</v>
       </c>
       <c r="F2" t="n">
-        <v>52601.96015041335</v>
+        <v>52601.96015041334</v>
       </c>
       <c r="G2" t="n">
         <v>52601.96015041335</v>
@@ -26334,25 +26334,25 @@
         <v>52601.96015041335</v>
       </c>
       <c r="I2" t="n">
-        <v>98205.26357376797</v>
+        <v>98205.26357376794</v>
       </c>
       <c r="J2" t="n">
         <v>98205.26357376791</v>
       </c>
       <c r="K2" t="n">
-        <v>98205.26357376797</v>
+        <v>98205.26357376791</v>
       </c>
       <c r="L2" t="n">
-        <v>98205.26357376795</v>
+        <v>98205.26357376789</v>
       </c>
       <c r="M2" t="n">
-        <v>98205.26357376792</v>
+        <v>98205.26357376789</v>
       </c>
       <c r="N2" t="n">
-        <v>98205.26357376795</v>
+        <v>98205.26357376791</v>
       </c>
       <c r="O2" t="n">
-        <v>98205.26357376791</v>
+        <v>98205.26357376789</v>
       </c>
       <c r="P2" t="n">
         <v>98205.26357376792</v>
@@ -26441,7 +26441,7 @@
         <v>42684.20901701353</v>
       </c>
       <c r="J4" t="n">
-        <v>42684.20901701353</v>
+        <v>42684.20901701354</v>
       </c>
       <c r="K4" t="n">
         <v>42684.20901701353</v>
@@ -26456,10 +26456,10 @@
         <v>42684.20901701353</v>
       </c>
       <c r="O4" t="n">
-        <v>42684.20901701353</v>
+        <v>42684.20901701354</v>
       </c>
       <c r="P4" t="n">
-        <v>42684.20901701353</v>
+        <v>42684.20901701354</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906639</v>
+        <v>-4996.930551051548</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906639</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906639</v>
+        <v>-4996.930551051548</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309336</v>
+        <v>28630.66944894845</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309335</v>
+        <v>28630.66944894844</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309336</v>
+        <v>28630.66944894845</v>
       </c>
       <c r="H6" t="n">
-        <v>30058.26294309336</v>
+        <v>28630.66944894845</v>
       </c>
       <c r="I6" t="n">
-        <v>-19612.02520135745</v>
+        <v>-20713.88081390699</v>
       </c>
       <c r="J6" t="n">
-        <v>41539.42726835479</v>
+        <v>40437.57165580527</v>
       </c>
       <c r="K6" t="n">
-        <v>41539.42726835484</v>
+        <v>40437.57165580527</v>
       </c>
       <c r="L6" t="n">
-        <v>41539.42726835483</v>
+        <v>40437.57165580526</v>
       </c>
       <c r="M6" t="n">
-        <v>41539.4272683548</v>
+        <v>40437.57165580526</v>
       </c>
       <c r="N6" t="n">
-        <v>41539.42726835483</v>
+        <v>40437.57165580527</v>
       </c>
       <c r="O6" t="n">
-        <v>41539.42726835478</v>
+        <v>40437.57165580525</v>
       </c>
       <c r="P6" t="n">
-        <v>41539.4272683548</v>
+        <v>40437.57165580528</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>117.8070290083198</v>
-      </c>
-      <c r="N23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36445,13 +36445,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>229.9609751381512</v>
@@ -36603,10 +36603,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>106.4120648096125</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="O27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q27" t="n">
         <v>229.9609751381512</v>
@@ -36837,19 +36837,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
         <v>74.55874088122788</v>
       </c>
       <c r="O29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="P30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.456764010152508</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M32" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L33" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N33" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M35" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="N35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N35" t="n">
-        <v>33.95693559625767</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>229.9609751381512</v>
@@ -37791,7 +37791,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>220.6696226073168</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>106.4120648096125</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="M42" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O42" t="n">
         <v>229.9609751381512</v>
@@ -37958,7 +37958,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152508</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>33.95693559625769</v>
-      </c>
-      <c r="L44" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>229.9609751381512</v>
@@ -38034,7 +38034,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
